--- a/docs/data_catalog.xlsx
+++ b/docs/data_catalog.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalves/Documents/repos/tcp-fia-trading-advisor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC289DED-CEAB-024E-BE0E-89B4E658EB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30948EC-0B9B-614B-9E20-E67AE7DFAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="500" windowWidth="24460" windowHeight="17500" activeTab="1" xr2:uid="{550C2880-A970-DB4C-A8D0-C28829EAD042}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="24460" windowHeight="16500" activeTab="1" xr2:uid="{550C2880-A970-DB4C-A8D0-C28829EAD042}"/>
   </bookViews>
   <sheets>
     <sheet name="df_fundamentals_book" sheetId="3" r:id="rId1"/>
     <sheet name="df_fundamentals_book_corr" sheetId="4" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="5" r:id="rId3"/>
+    <sheet name="fund_corr" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">fund_corr!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$B$161</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="899">
   <si>
     <t>ticker</t>
   </si>
@@ -2005,13 +2011,742 @@
   </si>
   <si>
     <t>-0.025185</t>
+  </si>
+  <si>
+    <t>market_cap vs enterprise_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.963003</t>
+  </si>
+  <si>
+    <t>market_cap vs total_revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.966357</t>
+  </si>
+  <si>
+    <t>market_cap vs beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.104070</t>
+  </si>
+  <si>
+    <t>market_cap vs ebitda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.907940</t>
+  </si>
+  <si>
+    <t>enterprise_value vs market_cap</t>
+  </si>
+  <si>
+    <t>enterprise_value vs total_revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.881551</t>
+  </si>
+  <si>
+    <t>enterprise_value vs beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.097216</t>
+  </si>
+  <si>
+    <t>enterprise_value vs ebitda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.775812</t>
+  </si>
+  <si>
+    <t>total_revenue vs market_cap</t>
+  </si>
+  <si>
+    <t>total_revenue vs enterprise_value</t>
+  </si>
+  <si>
+    <t>total_revenue vs ebitda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.974159</t>
+  </si>
+  <si>
+    <t>total_revenue vs trailing_pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.223599</t>
+  </si>
+  <si>
+    <t>total_revenue vs forward_pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.024961</t>
+  </si>
+  <si>
+    <t>total_revenue vs volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.359880</t>
+  </si>
+  <si>
+    <t>total_revenue vs average_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.558585</t>
+  </si>
+  <si>
+    <t>total_revenue vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.177506</t>
+  </si>
+  <si>
+    <t>total_revenue vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.277662</t>
+  </si>
+  <si>
+    <t>total_revenue vs price_to_sales_trailing_12_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.248406</t>
+  </si>
+  <si>
+    <t>total_revenue vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.262873</t>
+  </si>
+  <si>
+    <t>total_revenue vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.277979</t>
+  </si>
+  <si>
+    <t>total_revenue vs trailing_annual_dividend_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.167182</t>
+  </si>
+  <si>
+    <t>total_revenue vs trailing_annual_dividend_yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.550776</t>
+  </si>
+  <si>
+    <t>total_revenue vs book_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.251378</t>
+  </si>
+  <si>
+    <t>total_revenue vs total_cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.625022</t>
+  </si>
+  <si>
+    <t>total_revenue vs total_debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.707458</t>
+  </si>
+  <si>
+    <t>total_revenue vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.982982</t>
+  </si>
+  <si>
+    <t>total_revenue vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.140949</t>
+  </si>
+  <si>
+    <t>total_revenue vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.282596</t>
+  </si>
+  <si>
+    <t>total_revenue vs roi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.083208</t>
+  </si>
+  <si>
+    <t>profit_margins vs operating_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.570057</t>
+  </si>
+  <si>
+    <t>profit_margins vs dividend_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.044697</t>
+  </si>
+  <si>
+    <t>profit_margins vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.401448</t>
+  </si>
+  <si>
+    <t>operating_margins vs profit_margins</t>
+  </si>
+  <si>
+    <t>dividend_rate vs profit_margins</t>
+  </si>
+  <si>
+    <t>dividend_rate vs beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.578451</t>
+  </si>
+  <si>
+    <t>dividend_rate vs trailing_annual_dividend_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.932857</t>
+  </si>
+  <si>
+    <t>dividend_rate vs trailing_annual_dividend_yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.994015</t>
+  </si>
+  <si>
+    <t>dividend_rate vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.277752</t>
+  </si>
+  <si>
+    <t>dividend_rate vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t>dividend_rate vs price_to_sales_trailing_12_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.210456</t>
+  </si>
+  <si>
+    <t>dividend_rate vs total_cash_per_share</t>
+  </si>
+  <si>
+    <t>dividend_rate vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t>dividend_rate vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.200036</t>
+  </si>
+  <si>
+    <t>dividend_rate vs roi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.057037</t>
+  </si>
+  <si>
+    <t>beta vs market_cap</t>
+  </si>
+  <si>
+    <t>beta vs enterprise_value</t>
+  </si>
+  <si>
+    <t>beta vs dividend_rate</t>
+  </si>
+  <si>
+    <t>beta vs ebitda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.120487</t>
+  </si>
+  <si>
+    <t>ebitda vs market_cap</t>
+  </si>
+  <si>
+    <t>ebitda vs enterprise_value</t>
+  </si>
+  <si>
+    <t>ebitda vs dividend_rate</t>
+  </si>
+  <si>
+    <t>ebitda vs trailing_pe</t>
+  </si>
+  <si>
+    <t>ebitda vs forward_pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.067015</t>
+  </si>
+  <si>
+    <t>ebitda vs total_revenue</t>
+  </si>
+  <si>
+    <t>ebitda vs trailing_annual_dividend_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.215943</t>
+  </si>
+  <si>
+    <t>ebitda vs trailing_annual_dividend_yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.128185</t>
+  </si>
+  <si>
+    <t>ebitda vs book_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.094048</t>
+  </si>
+  <si>
+    <t>ebitda vs total_cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.463090</t>
+  </si>
+  <si>
+    <t>ebitda vs total_cash_per_share</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.192050</t>
+  </si>
+  <si>
+    <t>ebitda vs total_debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.556459</t>
+  </si>
+  <si>
+    <t>ebitda vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.939498</t>
+  </si>
+  <si>
+    <t>ebitda vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.150157</t>
+  </si>
+  <si>
+    <t>ebitda vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.239937</t>
+  </si>
+  <si>
+    <t>ebitda vs return_on_equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.106880</t>
+  </si>
+  <si>
+    <t>trailing_pe vs total_revenue</t>
+  </si>
+  <si>
+    <t>forward_pe vs total_revenue</t>
+  </si>
+  <si>
+    <t>forward_pe vs book_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.344115</t>
+  </si>
+  <si>
+    <t>forward_pe vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.542015</t>
+  </si>
+  <si>
+    <t>volume vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.852918</t>
+  </si>
+  <si>
+    <t>volume vs average_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.548781</t>
+  </si>
+  <si>
+    <t>volume vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.983632</t>
+  </si>
+  <si>
+    <t>volume vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.926501</t>
+  </si>
+  <si>
+    <t>volume vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.744661</t>
+  </si>
+  <si>
+    <t>volume vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.585891</t>
+  </si>
+  <si>
+    <t>volume vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.442107</t>
+  </si>
+  <si>
+    <t>average_volume vs total_revenue</t>
+  </si>
+  <si>
+    <t>average_volume vs volume</t>
+  </si>
+  <si>
+    <t>average_volume vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.784489</t>
+  </si>
+  <si>
+    <t>average_volume vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.759226</t>
+  </si>
+  <si>
+    <t>average_volume vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.622733</t>
+  </si>
+  <si>
+    <t>average_volume vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.808796</t>
+  </si>
+  <si>
+    <t>average_volume vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.636080</t>
+  </si>
+  <si>
+    <t>fifty_two_week_low vs total_revenue</t>
+  </si>
+  <si>
+    <t>fifty_two_week_low vs volume</t>
+  </si>
+  <si>
+    <t>fifty_two_week_low vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.933126</t>
+  </si>
+  <si>
+    <t>fifty_two_week_low vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.988344</t>
+  </si>
+  <si>
+    <t>fifty_two_week_low vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.935803</t>
+  </si>
+  <si>
+    <t>fifty_two_week_high vs total_revenue</t>
+  </si>
+  <si>
+    <t>fifty_two_week_high vs volume</t>
+  </si>
+  <si>
+    <t>fifty_two_week_high vs fifty_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.968563</t>
+  </si>
+  <si>
+    <t>fifty_two_week_high vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t>fifty_two_week_high vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.950189</t>
+  </si>
+  <si>
+    <t>price_to_sales_trailing_12_months vs total_revenue</t>
+  </si>
+  <si>
+    <t>price_to_sales_trailing_12_months vs dividend_rate</t>
+  </si>
+  <si>
+    <t>price_to_sales_trailing_12_months vs forward_pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.048045</t>
+  </si>
+  <si>
+    <t>price_to_sales_trailing_12_months vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.013427</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs total_revenue</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs volume</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs average_volume</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t>fifty_day_average vs two_hundred_day_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.961965</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs total_revenue</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs volume</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs average_volume</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs fifty_two_week_low</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs fifty_two_week_high</t>
+  </si>
+  <si>
+    <t>two_hundred_day_average vs fifty_day_average</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_rate vs total_revenue</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_rate vs dividend_rate</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_rate vs trailing_annual_dividend_yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.998640</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_rate vs ebitda</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_rate vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.399679</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_yield vs total_revenue</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_yield vs dividend_rate</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_yield vs trailing_annual_dividend_rate</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_yield vs ebitda</t>
+  </si>
+  <si>
+    <t>trailing_annual_dividend_yield vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.433821</t>
+  </si>
+  <si>
+    <t>book_value vs total_revenue</t>
+  </si>
+  <si>
+    <t>book_value vs forward_pe</t>
+  </si>
+  <si>
+    <t>book_value vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.348719</t>
+  </si>
+  <si>
+    <t>book_value vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.213230</t>
+  </si>
+  <si>
+    <t>total_cash vs total_revenue</t>
+  </si>
+  <si>
+    <t>total_cash vs ebitda</t>
+  </si>
+  <si>
+    <t>total_cash vs total_debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.562340</t>
+  </si>
+  <si>
+    <t>total_cash vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.790580</t>
+  </si>
+  <si>
+    <t>total_cash vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.066224</t>
+  </si>
+  <si>
+    <t>total_debt vs total_revenue</t>
+  </si>
+  <si>
+    <t>total_debt vs ebitda</t>
+  </si>
+  <si>
+    <t>total_debt vs total_cash</t>
+  </si>
+  <si>
+    <t>total_debt vs gross_profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.634221</t>
+  </si>
+  <si>
+    <t>total_debt vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.197117</t>
+  </si>
+  <si>
+    <t>gross_profits vs total_revenue</t>
+  </si>
+  <si>
+    <t>gross_profits vs profit_margins</t>
+  </si>
+  <si>
+    <t>gross_profits vs ebitda</t>
+  </si>
+  <si>
+    <t>gross_profits vs total_cash</t>
+  </si>
+  <si>
+    <t>gross_profits vs total_debt</t>
+  </si>
+  <si>
+    <t>gross_profits vs earnings_growth_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.505316</t>
+  </si>
+  <si>
+    <t>gross_profits vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.755418</t>
+  </si>
+  <si>
+    <t>gross_profits vs roi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.005536</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs total_revenue</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs forward_pe</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs dividend_rate</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs ebitda</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs gross_profits</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs gross_margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.251799</t>
+  </si>
+  <si>
+    <t>earnings_growth_rate vs roi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.154883</t>
+  </si>
+  <si>
+    <t>gross_margins vs total_revenue</t>
+  </si>
+  <si>
+    <t>gross_margins vs dividend_rate</t>
+  </si>
+  <si>
+    <t>gross_margins vs price_to_sales_trailing_12_months</t>
+  </si>
+  <si>
+    <t>gross_margins vs book_value</t>
+  </si>
+  <si>
+    <t>gross_margins vs gross_profits</t>
+  </si>
+  <si>
+    <t>roi vs total_revenue</t>
+  </si>
+  <si>
+    <t>roi vs dividend_rate</t>
+  </si>
+  <si>
+    <t>roi vs gross_profits</t>
+  </si>
+  <si>
+    <t>return_on_equity vs ebitda</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2051,13 +2786,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2098,7 +2827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2146,21 +2875,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2483,7 +3208,7 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2505,7 +3230,7 @@
     <col min="15" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2515,13 +3240,13 @@
       <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -5148,4233 +5873,6869 @@
   <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" style="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AG1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AI1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="2"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="29">
         <v>1000000</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="AI3" s="25" t="s">
+      <c r="AI3" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="29">
         <v>1000000</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AB4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="AE4" s="25" t="s">
+      <c r="AE4" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="AF4" s="25" t="s">
+      <c r="AF4" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AH4" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="29">
         <v>1000000</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="W5" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Y5" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AE5" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="AF5" s="25" t="s">
+      <c r="AF5" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="AG5" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="AH5" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="AI5" s="25" t="s">
+      <c r="AI5" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="29">
         <v>1000000</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AC7" s="25" t="s">
+      <c r="AC7" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AD7" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AF7" s="25" t="s">
+      <c r="AF7" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="AG7" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="AI7" s="25" t="s">
+      <c r="AI7" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="29">
         <v>1000000</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="Y8" s="25" t="s">
+      <c r="Y8" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="Z8" s="25" t="s">
+      <c r="Z8" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="AC8" s="25" t="s">
+      <c r="AC8" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AD8" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="AE8" s="25" t="s">
+      <c r="AE8" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AF8" s="25" t="s">
+      <c r="AF8" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AG8" s="25" t="s">
+      <c r="AG8" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="AH8" s="25" t="s">
+      <c r="AH8" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="AI8" s="25" t="s">
+      <c r="AI8" s="29" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="29">
         <v>1000000</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="W9" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="X9" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="Y9" s="25" t="s">
+      <c r="Y9" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="Z9" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AB9" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="AC9" s="25" t="s">
+      <c r="AC9" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AD9" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="AF9" s="25" t="s">
+      <c r="AF9" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="AG9" s="25" t="s">
+      <c r="AG9" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="AH9" s="25" t="s">
+      <c r="AH9" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="AI9" s="25" t="s">
+      <c r="AI9" s="29" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="29">
         <v>1000000</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="AF11" s="25" t="s">
+      <c r="AF11" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="AG11" s="25" t="s">
+      <c r="AG11" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AH11" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="AI11" s="29" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="29">
         <v>1000000</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="Y12" s="25" t="s">
+      <c r="Y12" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="AE12" s="25" t="s">
+      <c r="AE12" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="AF12" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="AG12" s="25" t="s">
+      <c r="AG12" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="AH12" s="25" t="s">
+      <c r="AH12" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AI12" s="25" t="s">
+      <c r="AI12" s="29" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="29">
         <v>1000000</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="X13" s="25" t="s">
+      <c r="X13" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="AD13" s="25" t="s">
+      <c r="AD13" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="AE13" s="25" t="s">
+      <c r="AE13" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="AF13" s="25" t="s">
+      <c r="AF13" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="AG13" s="25" t="s">
+      <c r="AG13" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="AH13" s="25" t="s">
+      <c r="AH13" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="AI13" s="25" t="s">
+      <c r="AI13" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="29">
         <v>1000000</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="V15" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="X15" s="25" t="s">
+      <c r="X15" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="Z15" s="25" t="s">
+      <c r="Z15" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="AA15" s="25" t="s">
+      <c r="AA15" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="AB15" s="25" t="s">
+      <c r="AB15" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="AC15" s="25" t="s">
+      <c r="AC15" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="AD15" s="25" t="s">
+      <c r="AD15" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="AE15" s="25" t="s">
+      <c r="AE15" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="AF15" s="25" t="s">
+      <c r="AF15" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="AG15" s="25" t="s">
+      <c r="AG15" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="AH15" s="25" t="s">
+      <c r="AH15" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="AI15" s="25" t="s">
+      <c r="AI15" s="29" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="29">
         <v>1000000</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="U16" s="25" t="s">
+      <c r="U16" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="V16" s="25" t="s">
+      <c r="V16" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="W16" s="25" t="s">
+      <c r="W16" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="X16" s="25" t="s">
+      <c r="X16" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="Y16" s="25" t="s">
+      <c r="Y16" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="Z16" s="25" t="s">
+      <c r="Z16" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="AA16" s="25" t="s">
+      <c r="AA16" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="AB16" s="25" t="s">
+      <c r="AB16" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="AC16" s="25" t="s">
+      <c r="AC16" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AD16" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="AE16" s="25" t="s">
+      <c r="AE16" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="AF16" s="25" t="s">
+      <c r="AF16" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="AG16" s="25" t="s">
+      <c r="AG16" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="AH16" s="25" t="s">
+      <c r="AH16" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="AI16" s="25" t="s">
+      <c r="AI16" s="29" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="29">
         <v>1000000</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="U17" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="V17" s="25" t="s">
+      <c r="V17" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="W17" s="25" t="s">
+      <c r="W17" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="X17" s="25" t="s">
+      <c r="X17" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="Y17" s="25" t="s">
+      <c r="Y17" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="Z17" s="25" t="s">
+      <c r="Z17" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="AA17" s="25" t="s">
+      <c r="AA17" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="AB17" s="25" t="s">
+      <c r="AB17" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="AC17" s="25" t="s">
+      <c r="AC17" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="AD17" s="25" t="s">
+      <c r="AD17" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="AE17" s="25" t="s">
+      <c r="AE17" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="AF17" s="25" t="s">
+      <c r="AF17" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="AG17" s="25" t="s">
+      <c r="AG17" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="AH17" s="25" t="s">
+      <c r="AH17" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="AI17" s="25" t="s">
+      <c r="AI17" s="29" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="29">
         <v>1000000</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="U19" s="25" t="s">
+      <c r="U19" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="V19" s="25" t="s">
+      <c r="V19" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="W19" s="25" t="s">
+      <c r="W19" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="X19" s="25" t="s">
+      <c r="X19" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="Y19" s="25" t="s">
+      <c r="Y19" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="Z19" s="25" t="s">
+      <c r="Z19" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="AA19" s="25" t="s">
+      <c r="AA19" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="AB19" s="25" t="s">
+      <c r="AB19" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="AC19" s="25" t="s">
+      <c r="AC19" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="AD19" s="25" t="s">
+      <c r="AD19" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="AE19" s="25" t="s">
+      <c r="AE19" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="AF19" s="25" t="s">
+      <c r="AF19" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="AG19" s="25" t="s">
+      <c r="AG19" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="AH19" s="25" t="s">
+      <c r="AH19" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="AI19" s="25" t="s">
+      <c r="AI19" s="29" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="29">
         <v>1000000</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="P20" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="U20" s="25" t="s">
+      <c r="U20" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="V20" s="25" t="s">
+      <c r="V20" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="W20" s="25" t="s">
+      <c r="W20" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="X20" s="25" t="s">
+      <c r="X20" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="Y20" s="25" t="s">
+      <c r="Y20" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="Z20" s="25" t="s">
+      <c r="Z20" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="AA20" s="25" t="s">
+      <c r="AA20" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="AB20" s="25" t="s">
+      <c r="AB20" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="AC20" s="25" t="s">
+      <c r="AC20" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="AD20" s="25" t="s">
+      <c r="AD20" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="AE20" s="25" t="s">
+      <c r="AE20" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="AF20" s="25" t="s">
+      <c r="AF20" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="AG20" s="25" t="s">
+      <c r="AG20" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="AH20" s="25" t="s">
+      <c r="AH20" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="AI20" s="25" t="s">
+      <c r="AI20" s="29" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="29">
         <v>1000000</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="U21" s="25" t="s">
+      <c r="U21" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="V21" s="25" t="s">
+      <c r="V21" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="W21" s="25" t="s">
+      <c r="W21" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="X21" s="25" t="s">
+      <c r="X21" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="Y21" s="25" t="s">
+      <c r="Y21" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="Z21" s="25" t="s">
+      <c r="Z21" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="AA21" s="25" t="s">
+      <c r="AA21" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="AB21" s="25" t="s">
+      <c r="AB21" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="AC21" s="25" t="s">
+      <c r="AC21" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="AD21" s="25" t="s">
+      <c r="AD21" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="AE21" s="25" t="s">
+      <c r="AE21" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="AF21" s="25" t="s">
+      <c r="AF21" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="AG21" s="25" t="s">
+      <c r="AG21" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="AH21" s="25" t="s">
+      <c r="AH21" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="AI21" s="25" t="s">
+      <c r="AI21" s="29" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="29">
         <v>1000000</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="U23" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="V23" s="25" t="s">
+      <c r="V23" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="W23" s="25" t="s">
+      <c r="W23" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="X23" s="25" t="s">
+      <c r="X23" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="Y23" s="25" t="s">
+      <c r="Y23" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AB23" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AC23" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="AD23" s="25" t="s">
+      <c r="AD23" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="AE23" s="25" t="s">
+      <c r="AE23" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="AF23" s="25" t="s">
+      <c r="AF23" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="AG23" s="25" t="s">
+      <c r="AG23" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AH23" s="25" t="s">
+      <c r="AH23" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="AI23" s="25" t="s">
+      <c r="AI23" s="29" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="29">
         <v>1000000</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="U24" s="25" t="s">
+      <c r="U24" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="V24" s="25" t="s">
+      <c r="V24" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="W24" s="25" t="s">
+      <c r="W24" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="X24" s="25" t="s">
+      <c r="X24" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="Y24" s="25" t="s">
+      <c r="Y24" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="Z24" s="25" t="s">
+      <c r="Z24" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="AA24" s="25" t="s">
+      <c r="AA24" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="AB24" s="25" t="s">
+      <c r="AB24" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="AD24" s="25" t="s">
+      <c r="AD24" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="AE24" s="25" t="s">
+      <c r="AE24" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="AF24" s="25" t="s">
+      <c r="AF24" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="AG24" s="25" t="s">
+      <c r="AG24" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="AH24" s="25" t="s">
+      <c r="AH24" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="AI24" s="25" t="s">
+      <c r="AI24" s="29" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="29">
         <v>1000000</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="U25" s="25" t="s">
+      <c r="U25" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="V25" s="25" t="s">
+      <c r="V25" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="W25" s="25" t="s">
+      <c r="W25" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="X25" s="25" t="s">
+      <c r="X25" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="Y25" s="25" t="s">
+      <c r="Y25" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="Z25" s="25" t="s">
+      <c r="Z25" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="AA25" s="25" t="s">
+      <c r="AA25" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="AB25" s="25" t="s">
+      <c r="AB25" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="AC25" s="25" t="s">
+      <c r="AC25" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="AD25" s="25" t="s">
+      <c r="AD25" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="AF25" s="25" t="s">
+      <c r="AF25" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="AG25" s="25" t="s">
+      <c r="AG25" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="AH25" s="25" t="s">
+      <c r="AH25" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="AI25" s="25" t="s">
+      <c r="AI25" s="29" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="29">
         <v>1000000</v>
       </c>
-      <c r="U27" s="25" t="s">
+      <c r="U27" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="V27" s="25" t="s">
+      <c r="V27" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="W27" s="25" t="s">
+      <c r="W27" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="X27" s="25" t="s">
+      <c r="X27" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="Y27" s="25" t="s">
+      <c r="Y27" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="Z27" s="25" t="s">
+      <c r="Z27" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="AA27" s="25" t="s">
+      <c r="AA27" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="AB27" s="25" t="s">
+      <c r="AB27" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="AC27" s="25" t="s">
+      <c r="AC27" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="AD27" s="25" t="s">
+      <c r="AD27" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="AE27" s="25" t="s">
+      <c r="AE27" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="AF27" s="25" t="s">
+      <c r="AF27" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="AG27" s="25" t="s">
+      <c r="AG27" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="AH27" s="25" t="s">
+      <c r="AH27" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="AI27" s="25" t="s">
+      <c r="AI27" s="29" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="P28" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="T28" s="25" t="s">
+      <c r="T28" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28" s="29">
         <v>1000000</v>
       </c>
-      <c r="V28" s="25" t="s">
+      <c r="V28" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="W28" s="25" t="s">
+      <c r="W28" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="X28" s="25" t="s">
+      <c r="X28" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="Y28" s="25" t="s">
+      <c r="Y28" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="Z28" s="25" t="s">
+      <c r="Z28" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="AA28" s="25" t="s">
+      <c r="AA28" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="AB28" s="25" t="s">
+      <c r="AB28" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="AC28" s="25" t="s">
+      <c r="AC28" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="AD28" s="25" t="s">
+      <c r="AD28" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="AE28" s="25" t="s">
+      <c r="AE28" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="AF28" s="25" t="s">
+      <c r="AF28" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="AG28" s="25" t="s">
+      <c r="AG28" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="AH28" s="25" t="s">
+      <c r="AH28" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="AI28" s="25" t="s">
+      <c r="AI28" s="29" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="P29" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="T29" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="U29" s="25" t="s">
+      <c r="U29" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="V29" s="25">
+      <c r="V29" s="29">
         <v>1000000</v>
       </c>
-      <c r="W29" s="25" t="s">
+      <c r="W29" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="25" t="s">
+      <c r="X29" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="Y29" s="25" t="s">
+      <c r="Y29" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="Z29" s="25" t="s">
+      <c r="Z29" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="AA29" s="25" t="s">
+      <c r="AA29" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="AB29" s="25" t="s">
+      <c r="AB29" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="AC29" s="25" t="s">
+      <c r="AC29" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="AD29" s="25" t="s">
+      <c r="AD29" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="AE29" s="25" t="s">
+      <c r="AE29" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="AF29" s="25" t="s">
+      <c r="AF29" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="AG29" s="25" t="s">
+      <c r="AG29" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="AH29" s="25" t="s">
+      <c r="AH29" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="AI29" s="25" t="s">
+      <c r="AI29" s="29" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="Q31" s="25" t="s">
+      <c r="Q31" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="T31" s="25" t="s">
+      <c r="T31" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="U31" s="25" t="s">
+      <c r="U31" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="V31" s="25" t="s">
+      <c r="V31" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="W31" s="25">
+      <c r="W31" s="29">
         <v>1000000</v>
       </c>
-      <c r="X31" s="25" t="s">
+      <c r="X31" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="Y31" s="25" t="s">
+      <c r="Y31" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="Z31" s="25" t="s">
+      <c r="Z31" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="AA31" s="25" t="s">
+      <c r="AA31" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="AB31" s="25" t="s">
+      <c r="AB31" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="AC31" s="25" t="s">
+      <c r="AC31" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="AD31" s="25" t="s">
+      <c r="AD31" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AE31" s="25" t="s">
+      <c r="AE31" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="AF31" s="25" t="s">
+      <c r="AF31" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="AG31" s="25" t="s">
+      <c r="AG31" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="AH31" s="25" t="s">
+      <c r="AH31" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="AI31" s="25" t="s">
+      <c r="AI31" s="29" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="P32" s="25" t="s">
+      <c r="P32" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="T32" s="25" t="s">
+      <c r="T32" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="U32" s="25" t="s">
+      <c r="U32" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="V32" s="25" t="s">
+      <c r="V32" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="W32" s="25" t="s">
+      <c r="W32" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="X32" s="25">
+      <c r="X32" s="29">
         <v>1000000</v>
       </c>
-      <c r="Y32" s="25" t="s">
+      <c r="Y32" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="Z32" s="25" t="s">
+      <c r="Z32" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="AA32" s="25" t="s">
+      <c r="AA32" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="AB32" s="25" t="s">
+      <c r="AB32" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="AC32" s="25" t="s">
+      <c r="AC32" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="AD32" s="25" t="s">
+      <c r="AD32" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="AE32" s="25" t="s">
+      <c r="AE32" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="AF32" s="25" t="s">
+      <c r="AF32" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="AG32" s="25" t="s">
+      <c r="AG32" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="AH32" s="25" t="s">
+      <c r="AH32" s="29" t="s">
         <v>609</v>
       </c>
-      <c r="AI32" s="25" t="s">
+      <c r="AI32" s="29" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M33" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="P33" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="S33" s="25" t="s">
+      <c r="S33" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="T33" s="25" t="s">
+      <c r="T33" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="U33" s="25" t="s">
+      <c r="U33" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="V33" s="25" t="s">
+      <c r="V33" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="W33" s="25" t="s">
+      <c r="W33" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="X33" s="25" t="s">
+      <c r="X33" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="Y33" s="25">
+      <c r="Y33" s="29">
         <v>1000000</v>
       </c>
-      <c r="Z33" s="25" t="s">
+      <c r="Z33" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="AA33" s="25" t="s">
+      <c r="AA33" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="AB33" s="25" t="s">
+      <c r="AB33" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="AC33" s="25" t="s">
+      <c r="AC33" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="AD33" s="25" t="s">
+      <c r="AD33" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="AE33" s="25" t="s">
+      <c r="AE33" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="AF33" s="25" t="s">
+      <c r="AF33" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="AG33" s="25" t="s">
+      <c r="AG33" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="AH33" s="25" t="s">
+      <c r="AH33" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="AI33" s="25" t="s">
+      <c r="AI33" s="29" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="T35" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="U35" s="25" t="s">
+      <c r="U35" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="V35" s="25" t="s">
+      <c r="V35" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="W35" s="25" t="s">
+      <c r="W35" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="X35" s="25" t="s">
+      <c r="X35" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="Y35" s="25" t="s">
+      <c r="Y35" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="Z35" s="25">
+      <c r="Z35" s="29">
         <v>1000000</v>
       </c>
-      <c r="AA35" s="25" t="s">
+      <c r="AA35" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="AB35" s="25" t="s">
+      <c r="AB35" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="AC35" s="25" t="s">
+      <c r="AC35" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="AD35" s="25" t="s">
+      <c r="AD35" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="AE35" s="25" t="s">
+      <c r="AE35" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="AF35" s="25" t="s">
+      <c r="AF35" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="AG35" s="25">
+      <c r="AG35" s="29">
         <v>1000000</v>
       </c>
-      <c r="AH35" s="25" t="s">
+      <c r="AH35" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="AI35" s="25" t="s">
+      <c r="AI35" s="29" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M36" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="O36" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="P36" s="25" t="s">
+      <c r="P36" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="T36" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="U36" s="25" t="s">
+      <c r="U36" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="V36" s="25" t="s">
+      <c r="V36" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="W36" s="25" t="s">
+      <c r="W36" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="X36" s="25" t="s">
+      <c r="X36" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="Y36" s="25" t="s">
+      <c r="Y36" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="Z36" s="25" t="s">
+      <c r="Z36" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="AA36" s="25">
+      <c r="AA36" s="29">
         <v>1000000</v>
       </c>
-      <c r="AB36" s="25" t="s">
+      <c r="AB36" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="AC36" s="25" t="s">
+      <c r="AC36" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="AD36" s="25" t="s">
+      <c r="AD36" s="29" t="s">
         <v>630</v>
       </c>
-      <c r="AE36" s="25" t="s">
+      <c r="AE36" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="AF36" s="25" t="s">
+      <c r="AF36" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="AG36" s="25" t="s">
+      <c r="AG36" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="AH36" s="25" t="s">
+      <c r="AH36" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="AI36" s="25" t="s">
+      <c r="AI36" s="29" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="P37" s="25" t="s">
+      <c r="P37" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="T37" s="25" t="s">
+      <c r="T37" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="U37" s="25" t="s">
+      <c r="U37" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="V37" s="25" t="s">
+      <c r="V37" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="W37" s="25" t="s">
+      <c r="W37" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="X37" s="25" t="s">
+      <c r="X37" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="Y37" s="25" t="s">
+      <c r="Y37" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="Z37" s="25" t="s">
+      <c r="Z37" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="AA37" s="25" t="s">
+      <c r="AA37" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="AB37" s="25">
+      <c r="AB37" s="29">
         <v>1000000</v>
       </c>
-      <c r="AC37" s="25" t="s">
+      <c r="AC37" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="AD37" s="25" t="s">
+      <c r="AD37" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="AE37" s="25" t="s">
+      <c r="AE37" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="AF37" s="25" t="s">
+      <c r="AF37" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="AG37" s="25" t="s">
+      <c r="AG37" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="AH37" s="25" t="s">
+      <c r="AH37" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="AI37" s="25" t="s">
+      <c r="AI37" s="29" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="P39" s="25" t="s">
+      <c r="P39" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="T39" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="U39" s="25" t="s">
+      <c r="U39" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="V39" s="25" t="s">
+      <c r="V39" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="W39" s="25" t="s">
+      <c r="W39" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="X39" s="25" t="s">
+      <c r="X39" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="Y39" s="25" t="s">
+      <c r="Y39" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="Z39" s="25" t="s">
+      <c r="Z39" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="AA39" s="25" t="s">
+      <c r="AA39" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="AB39" s="25" t="s">
+      <c r="AB39" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="AC39" s="25">
+      <c r="AC39" s="29">
         <v>1000000</v>
       </c>
-      <c r="AD39" s="25" t="s">
+      <c r="AD39" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="AE39" s="25" t="s">
+      <c r="AE39" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="AF39" s="25" t="s">
+      <c r="AF39" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="AG39" s="25" t="s">
+      <c r="AG39" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="AH39" s="25" t="s">
+      <c r="AH39" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="AI39" s="25" t="s">
+      <c r="AI39" s="29" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="P40" s="25" t="s">
+      <c r="P40" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q40" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="T40" s="25" t="s">
+      <c r="T40" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="U40" s="25" t="s">
+      <c r="U40" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="V40" s="25" t="s">
+      <c r="V40" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="W40" s="25" t="s">
+      <c r="W40" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="X40" s="25" t="s">
+      <c r="X40" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="Y40" s="25" t="s">
+      <c r="Y40" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="Z40" s="25" t="s">
+      <c r="Z40" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="AA40" s="25" t="s">
+      <c r="AA40" s="29" t="s">
         <v>630</v>
       </c>
-      <c r="AB40" s="25" t="s">
+      <c r="AB40" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="AC40" s="25" t="s">
+      <c r="AC40" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="AD40" s="25">
+      <c r="AD40" s="29">
         <v>1000000</v>
       </c>
-      <c r="AE40" s="25" t="s">
+      <c r="AE40" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="AF40" s="25" t="s">
+      <c r="AF40" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="AG40" s="25" t="s">
+      <c r="AG40" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="AH40" s="25" t="s">
+      <c r="AH40" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="AI40" s="25" t="s">
+      <c r="AI40" s="29" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="N41" s="25" t="s">
+      <c r="N41" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="O41" s="25" t="s">
+      <c r="O41" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="P41" s="25" t="s">
+      <c r="P41" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="T41" s="25" t="s">
+      <c r="T41" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="U41" s="25" t="s">
+      <c r="U41" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="V41" s="25" t="s">
+      <c r="V41" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="W41" s="25" t="s">
+      <c r="W41" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="X41" s="25" t="s">
+      <c r="X41" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="Y41" s="25" t="s">
+      <c r="Y41" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="Z41" s="25" t="s">
+      <c r="Z41" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="AA41" s="25" t="s">
+      <c r="AA41" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="AB41" s="25" t="s">
+      <c r="AB41" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="AC41" s="25" t="s">
+      <c r="AC41" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="AD41" s="25" t="s">
+      <c r="AD41" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="AE41" s="25">
+      <c r="AE41" s="29">
         <v>1000000</v>
       </c>
-      <c r="AF41" s="25" t="s">
+      <c r="AF41" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="AG41" s="25" t="s">
+      <c r="AG41" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="AH41" s="25" t="s">
+      <c r="AH41" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="AI41" s="25" t="s">
+      <c r="AI41" s="29" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M43" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="P43" s="25" t="s">
+      <c r="P43" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="Q43" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="S43" s="25" t="s">
+      <c r="S43" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="T43" s="25" t="s">
+      <c r="T43" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="U43" s="25" t="s">
+      <c r="U43" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="V43" s="25" t="s">
+      <c r="V43" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="W43" s="25" t="s">
+      <c r="W43" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="X43" s="25" t="s">
+      <c r="X43" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="Y43" s="25" t="s">
+      <c r="Y43" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="Z43" s="25" t="s">
+      <c r="Z43" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="AA43" s="25" t="s">
+      <c r="AA43" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="AB43" s="25" t="s">
+      <c r="AB43" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="AC43" s="25" t="s">
+      <c r="AC43" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="AD43" s="25" t="s">
+      <c r="AD43" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="AE43" s="25" t="s">
+      <c r="AE43" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="AF43" s="25">
+      <c r="AF43" s="29">
         <v>1000000</v>
       </c>
-      <c r="AG43" s="25" t="s">
+      <c r="AG43" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="AH43" s="25" t="s">
+      <c r="AH43" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="AI43" s="25" t="s">
+      <c r="AI43" s="29" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="L44" s="25" t="s">
+      <c r="L44" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="P44" s="25" t="s">
+      <c r="P44" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="Q44" s="25" t="s">
+      <c r="Q44" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="R44" s="25" t="s">
+      <c r="R44" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="S44" s="25" t="s">
+      <c r="S44" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="T44" s="25" t="s">
+      <c r="T44" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="U44" s="25" t="s">
+      <c r="U44" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="V44" s="25" t="s">
+      <c r="V44" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="W44" s="25" t="s">
+      <c r="W44" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="X44" s="25" t="s">
+      <c r="X44" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="Y44" s="25" t="s">
+      <c r="Y44" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="Z44" s="25">
+      <c r="Z44" s="29">
         <v>1000000</v>
       </c>
-      <c r="AA44" s="25" t="s">
+      <c r="AA44" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="AB44" s="25" t="s">
+      <c r="AB44" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="AC44" s="25" t="s">
+      <c r="AC44" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="AD44" s="25" t="s">
+      <c r="AD44" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="AE44" s="25" t="s">
+      <c r="AE44" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="AF44" s="25" t="s">
+      <c r="AF44" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="AG44" s="25">
+      <c r="AG44" s="29">
         <v>1000000</v>
       </c>
-      <c r="AH44" s="25" t="s">
+      <c r="AH44" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="AI44" s="25" t="s">
+      <c r="AI44" s="29" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="M45" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="N45" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="P45" s="25" t="s">
+      <c r="P45" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="Q45" s="25" t="s">
+      <c r="Q45" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="R45" s="25" t="s">
+      <c r="R45" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="S45" s="25" t="s">
+      <c r="S45" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="T45" s="25" t="s">
+      <c r="T45" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="U45" s="25" t="s">
+      <c r="U45" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="V45" s="25" t="s">
+      <c r="V45" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="W45" s="25" t="s">
+      <c r="W45" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="X45" s="25" t="s">
+      <c r="X45" s="29" t="s">
         <v>609</v>
       </c>
-      <c r="Y45" s="25" t="s">
+      <c r="Y45" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="Z45" s="25" t="s">
+      <c r="Z45" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="AA45" s="25" t="s">
+      <c r="AA45" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="AB45" s="25" t="s">
+      <c r="AB45" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="AC45" s="25" t="s">
+      <c r="AC45" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="AD45" s="25" t="s">
+      <c r="AD45" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="AE45" s="25" t="s">
+      <c r="AE45" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="AF45" s="25" t="s">
+      <c r="AF45" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="AG45" s="25" t="s">
+      <c r="AG45" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="AH45" s="25">
+      <c r="AH45" s="29">
         <v>1000000</v>
       </c>
-      <c r="AI45" s="25" t="s">
+      <c r="AI45" s="29" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="L47" s="25" t="s">
+      <c r="L47" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M47" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="P47" s="25" t="s">
+      <c r="P47" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="Q47" s="25" t="s">
+      <c r="Q47" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="S47" s="25" t="s">
+      <c r="S47" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="T47" s="25" t="s">
+      <c r="T47" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="U47" s="25" t="s">
+      <c r="U47" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="V47" s="25" t="s">
+      <c r="V47" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="W47" s="25" t="s">
+      <c r="W47" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="X47" s="25" t="s">
+      <c r="X47" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="Y47" s="25" t="s">
+      <c r="Y47" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="Z47" s="25" t="s">
+      <c r="Z47" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="AA47" s="25" t="s">
+      <c r="AA47" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="AB47" s="25" t="s">
+      <c r="AB47" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="AC47" s="25" t="s">
+      <c r="AC47" s="29" t="s">
         <v>645</v>
       </c>
-      <c r="AD47" s="25" t="s">
+      <c r="AD47" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="AE47" s="25" t="s">
+      <c r="AE47" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="AF47" s="25" t="s">
+      <c r="AF47" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="AG47" s="25" t="s">
+      <c r="AG47" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="AH47" s="25" t="s">
+      <c r="AH47" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="AI47" s="25">
+      <c r="AI47" s="29">
         <v>1000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA46056E-2CCD-4E4D-857E-12A9E49A3EBD}">
+  <dimension ref="A1:J161"/>
+  <sheetViews>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>825</v>
+      </c>
+      <c r="B16" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>826</v>
+      </c>
+      <c r="B21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B24" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>760</v>
+      </c>
+      <c r="B25" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>870</v>
+      </c>
+      <c r="B27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>802</v>
+      </c>
+      <c r="B30" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>824</v>
+      </c>
+      <c r="B31" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>721</v>
+      </c>
+      <c r="B32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>721</v>
+      </c>
+      <c r="B33" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>835</v>
+      </c>
+      <c r="B34" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>809</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>741</v>
+      </c>
+      <c r="B38" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>665</v>
+      </c>
+      <c r="B39" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>774</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>774</v>
+      </c>
+      <c r="B42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>822</v>
+      </c>
+      <c r="B43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>796</v>
+      </c>
+      <c r="B44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>830</v>
+      </c>
+      <c r="B45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>857</v>
+      </c>
+      <c r="B46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B47" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B48" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>823</v>
+      </c>
+      <c r="B49" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>669</v>
+      </c>
+      <c r="B50" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>742</v>
+      </c>
+      <c r="B51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>792</v>
+      </c>
+      <c r="B52" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>875</v>
+      </c>
+      <c r="B53" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>892</v>
+      </c>
+      <c r="B54" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>782</v>
+      </c>
+      <c r="B55" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>829</v>
+      </c>
+      <c r="B56" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>701</v>
+      </c>
+      <c r="B57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>861</v>
+      </c>
+      <c r="B58" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>798</v>
+      </c>
+      <c r="B59" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>864</v>
+      </c>
+      <c r="B60" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>872</v>
+      </c>
+      <c r="B61" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>699</v>
+      </c>
+      <c r="B62" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>853</v>
+      </c>
+      <c r="B63" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>784</v>
+      </c>
+      <c r="B65" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
+      <c r="B66" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>738</v>
+      </c>
+      <c r="B67" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>743</v>
+      </c>
+      <c r="B68" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>855</v>
+      </c>
+      <c r="B69" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B70" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>681</v>
+      </c>
+      <c r="B71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>788</v>
+      </c>
+      <c r="B72" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>758</v>
+      </c>
+      <c r="B73" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>862</v>
+      </c>
+      <c r="B74" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>695</v>
+      </c>
+      <c r="B75" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>841</v>
+      </c>
+      <c r="B76" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>776</v>
+      </c>
+      <c r="B77" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>789</v>
+      </c>
+      <c r="B78" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>772</v>
+      </c>
+      <c r="B79" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>880</v>
+      </c>
+      <c r="B80" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>873</v>
+      </c>
+      <c r="B81" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>883</v>
+      </c>
+      <c r="B82" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>754</v>
+      </c>
+      <c r="B83" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>854</v>
+      </c>
+      <c r="B84" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>845</v>
+      </c>
+      <c r="B85" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>715</v>
+      </c>
+      <c r="B86" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>869</v>
+      </c>
+      <c r="B87" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>839</v>
+      </c>
+      <c r="B88" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>849</v>
+      </c>
+      <c r="B90" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>764</v>
+      </c>
+      <c r="B91" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>748</v>
+      </c>
+      <c r="B92" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>838</v>
+      </c>
+      <c r="B93" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>693</v>
+      </c>
+      <c r="B94" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>834</v>
+      </c>
+      <c r="B95" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>886</v>
+      </c>
+      <c r="B96" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>762</v>
+      </c>
+      <c r="B97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>882</v>
+      </c>
+      <c r="B98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>750</v>
+      </c>
+      <c r="B99" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>844</v>
+      </c>
+      <c r="B100" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>739</v>
+      </c>
+      <c r="B101" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>660</v>
+      </c>
+      <c r="B102" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>736</v>
+      </c>
+      <c r="B103" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>667</v>
+      </c>
+      <c r="B104" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>737</v>
+      </c>
+      <c r="B105" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>752</v>
+      </c>
+      <c r="B106" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>859</v>
+      </c>
+      <c r="B107" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>713</v>
+      </c>
+      <c r="B108" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>718</v>
+      </c>
+      <c r="B109" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>877</v>
+      </c>
+      <c r="B110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>895</v>
+      </c>
+      <c r="B111" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>711</v>
+      </c>
+      <c r="B112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>717</v>
+      </c>
+      <c r="B113" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>786</v>
+      </c>
+      <c r="B114" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>770</v>
+      </c>
+      <c r="B115" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B116" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>707</v>
+      </c>
+      <c r="B117" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>888</v>
+      </c>
+      <c r="B118" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>691</v>
+      </c>
+      <c r="B119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>828</v>
+      </c>
+      <c r="B120" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>725</v>
+      </c>
+      <c r="B121" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>727</v>
+      </c>
+      <c r="B123" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>808</v>
+      </c>
+      <c r="B124" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>689</v>
+      </c>
+      <c r="B125" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>821</v>
+      </c>
+      <c r="B126" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>884</v>
+      </c>
+      <c r="B127" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>697</v>
+      </c>
+      <c r="B128" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>847</v>
+      </c>
+      <c r="B129" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>687</v>
+      </c>
+      <c r="B130" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>815</v>
+      </c>
+      <c r="B131" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>675</v>
+      </c>
+      <c r="B132" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>744</v>
+      </c>
+      <c r="B133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>768</v>
+      </c>
+      <c r="B134" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>851</v>
+      </c>
+      <c r="B135" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>891</v>
+      </c>
+      <c r="B136" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>728</v>
+      </c>
+      <c r="B137" t="s">
+        <v>729</v>
+      </c>
+      <c r="J137">
+        <f>34*17</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>816</v>
+      </c>
+      <c r="B138" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>732</v>
+      </c>
+      <c r="B139" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>889</v>
+      </c>
+      <c r="B140" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>866</v>
+      </c>
+      <c r="B141" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>756</v>
+      </c>
+      <c r="B142" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>683</v>
+      </c>
+      <c r="B143" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>800</v>
+      </c>
+      <c r="B144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>705</v>
+      </c>
+      <c r="B145" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>731</v>
+      </c>
+      <c r="B146" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>879</v>
+      </c>
+      <c r="B147" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>881</v>
+      </c>
+      <c r="B148" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>766</v>
+      </c>
+      <c r="B149" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>896</v>
+      </c>
+      <c r="B150" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>709</v>
+      </c>
+      <c r="B151" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>893</v>
+      </c>
+      <c r="B152" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>745</v>
+      </c>
+      <c r="B153" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>734</v>
+      </c>
+      <c r="B154" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>894</v>
+      </c>
+      <c r="B155" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>817</v>
+      </c>
+      <c r="B156" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>677</v>
+      </c>
+      <c r="B157" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>730</v>
+      </c>
+      <c r="B158" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>769</v>
+      </c>
+      <c r="B159" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>819</v>
+      </c>
+      <c r="B160" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>890</v>
+      </c>
+      <c r="B161" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B161" xr:uid="{DA46056E-2CCD-4E4D-857E-12A9E49A3EBD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B161">
+      <sortCondition descending="1" ref="B1:B161"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF21D01-C798-514A-973A-AB1CBB0F3E63}">
+  <dimension ref="A1:J161"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:B161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>825</v>
+      </c>
+      <c r="B16" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>826</v>
+      </c>
+      <c r="B21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B24" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>760</v>
+      </c>
+      <c r="B25" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>870</v>
+      </c>
+      <c r="B27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>802</v>
+      </c>
+      <c r="B30" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>824</v>
+      </c>
+      <c r="B31" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>721</v>
+      </c>
+      <c r="B32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>721</v>
+      </c>
+      <c r="B33" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>835</v>
+      </c>
+      <c r="B34" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>809</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>741</v>
+      </c>
+      <c r="B38" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>665</v>
+      </c>
+      <c r="B39" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>774</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>774</v>
+      </c>
+      <c r="B42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>822</v>
+      </c>
+      <c r="B43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>796</v>
+      </c>
+      <c r="B44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>830</v>
+      </c>
+      <c r="B45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>857</v>
+      </c>
+      <c r="B46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>871</v>
+      </c>
+      <c r="B47" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B48" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>823</v>
+      </c>
+      <c r="B49" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>669</v>
+      </c>
+      <c r="B50" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>742</v>
+      </c>
+      <c r="B51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>792</v>
+      </c>
+      <c r="B52" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>875</v>
+      </c>
+      <c r="B53" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>892</v>
+      </c>
+      <c r="B54" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>782</v>
+      </c>
+      <c r="B55" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>829</v>
+      </c>
+      <c r="B56" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>701</v>
+      </c>
+      <c r="B57" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>861</v>
+      </c>
+      <c r="B58" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>798</v>
+      </c>
+      <c r="B59" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>864</v>
+      </c>
+      <c r="B60" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>872</v>
+      </c>
+      <c r="B61" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>699</v>
+      </c>
+      <c r="B62" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>853</v>
+      </c>
+      <c r="B63" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>784</v>
+      </c>
+      <c r="B65" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>719</v>
+      </c>
+      <c r="B66" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>738</v>
+      </c>
+      <c r="B67" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>743</v>
+      </c>
+      <c r="B68" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>855</v>
+      </c>
+      <c r="B69" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B70" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>681</v>
+      </c>
+      <c r="B71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>788</v>
+      </c>
+      <c r="B72" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>758</v>
+      </c>
+      <c r="B73" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>862</v>
+      </c>
+      <c r="B74" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>695</v>
+      </c>
+      <c r="B75" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>841</v>
+      </c>
+      <c r="B76" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>776</v>
+      </c>
+      <c r="B77" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>789</v>
+      </c>
+      <c r="B78" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>772</v>
+      </c>
+      <c r="B79" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>880</v>
+      </c>
+      <c r="B80" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>873</v>
+      </c>
+      <c r="B81" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>883</v>
+      </c>
+      <c r="B82" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>754</v>
+      </c>
+      <c r="B83" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>854</v>
+      </c>
+      <c r="B84" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>845</v>
+      </c>
+      <c r="B85" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>715</v>
+      </c>
+      <c r="B86" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>869</v>
+      </c>
+      <c r="B87" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>839</v>
+      </c>
+      <c r="B88" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>849</v>
+      </c>
+      <c r="B90" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>764</v>
+      </c>
+      <c r="B91" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>748</v>
+      </c>
+      <c r="B92" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>838</v>
+      </c>
+      <c r="B93" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>693</v>
+      </c>
+      <c r="B94" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>834</v>
+      </c>
+      <c r="B95" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>886</v>
+      </c>
+      <c r="B96" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>762</v>
+      </c>
+      <c r="B97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>882</v>
+      </c>
+      <c r="B98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>750</v>
+      </c>
+      <c r="B99" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>844</v>
+      </c>
+      <c r="B100" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>739</v>
+      </c>
+      <c r="B101" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>660</v>
+      </c>
+      <c r="B102" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>736</v>
+      </c>
+      <c r="B103" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>667</v>
+      </c>
+      <c r="B104" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>737</v>
+      </c>
+      <c r="B105" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>752</v>
+      </c>
+      <c r="B106" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>859</v>
+      </c>
+      <c r="B107" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>713</v>
+      </c>
+      <c r="B108" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>718</v>
+      </c>
+      <c r="B109" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>877</v>
+      </c>
+      <c r="B110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>895</v>
+      </c>
+      <c r="B111" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>711</v>
+      </c>
+      <c r="B112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>717</v>
+      </c>
+      <c r="B113" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>786</v>
+      </c>
+      <c r="B114" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>770</v>
+      </c>
+      <c r="B115" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B116" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>707</v>
+      </c>
+      <c r="B117" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>888</v>
+      </c>
+      <c r="B118" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>691</v>
+      </c>
+      <c r="B119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>828</v>
+      </c>
+      <c r="B120" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>725</v>
+      </c>
+      <c r="B121" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>727</v>
+      </c>
+      <c r="B123" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>808</v>
+      </c>
+      <c r="B124" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>689</v>
+      </c>
+      <c r="B125" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>821</v>
+      </c>
+      <c r="B126" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>884</v>
+      </c>
+      <c r="B127" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>697</v>
+      </c>
+      <c r="B128" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>847</v>
+      </c>
+      <c r="B129" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>687</v>
+      </c>
+      <c r="B130" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>815</v>
+      </c>
+      <c r="B131" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>675</v>
+      </c>
+      <c r="B132" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>744</v>
+      </c>
+      <c r="B133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>768</v>
+      </c>
+      <c r="B134" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>851</v>
+      </c>
+      <c r="B135" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>891</v>
+      </c>
+      <c r="B136" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>728</v>
+      </c>
+      <c r="B137" t="s">
+        <v>729</v>
+      </c>
+      <c r="J137">
+        <f>34*17</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>816</v>
+      </c>
+      <c r="B138" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>732</v>
+      </c>
+      <c r="B139" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>889</v>
+      </c>
+      <c r="B140" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>866</v>
+      </c>
+      <c r="B141" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>756</v>
+      </c>
+      <c r="B142" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>683</v>
+      </c>
+      <c r="B143" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>800</v>
+      </c>
+      <c r="B144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>705</v>
+      </c>
+      <c r="B145" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>731</v>
+      </c>
+      <c r="B146" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>879</v>
+      </c>
+      <c r="B147" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>881</v>
+      </c>
+      <c r="B148" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>766</v>
+      </c>
+      <c r="B149" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>896</v>
+      </c>
+      <c r="B150" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>709</v>
+      </c>
+      <c r="B151" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>893</v>
+      </c>
+      <c r="B152" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>745</v>
+      </c>
+      <c r="B153" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>734</v>
+      </c>
+      <c r="B154" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>894</v>
+      </c>
+      <c r="B155" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>817</v>
+      </c>
+      <c r="B156" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>677</v>
+      </c>
+      <c r="B157" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>730</v>
+      </c>
+      <c r="B158" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>769</v>
+      </c>
+      <c r="B159" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>819</v>
+      </c>
+      <c r="B160" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>890</v>
+      </c>
+      <c r="B161" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{6FF21D01-C798-514A-973A-AB1CBB0F3E63}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B161">
+      <sortCondition descending="1" ref="B1:B161"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>